--- a/Product Backlog/Product Backlog.xlsx
+++ b/Product Backlog/Product Backlog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -54,12 +54,6 @@
     <t>گرفتن توپ، در صورت حرکت پشت سرهم دست به مدت کوتاهی فریز بشه</t>
   </si>
   <si>
-    <t>طراحی دست(art)، ایمان به دوستش میسپارد</t>
-  </si>
-  <si>
-    <t>توپ ها با رنگ، جنس و سرعت متفاوت اضافه می‌شوند، جایزه کم شدن توپ، تعیین جایزه، اضافه شدن توپ ها</t>
-  </si>
-  <si>
     <t>PBI(Product Backlog Item)</t>
   </si>
   <si>
@@ -88,6 +82,105 @@
   </si>
   <si>
     <t>نصب، آموزش</t>
+  </si>
+  <si>
+    <t>الگوریتم جایزه ها و گرفتن جایزه توسط کاربر</t>
+  </si>
+  <si>
+    <t>امکان در اختیار قرار دادن جایزه برای کاربر و توانایی انتخاب آن توسط وی</t>
+  </si>
+  <si>
+    <t>وارد کردن الگوریتم برخورد توپ ها به یکدیگر</t>
+  </si>
+  <si>
+    <t>توانایی پردازش و تشخیص برخورد توپ ها</t>
+  </si>
+  <si>
+    <t>محاسبه و تاثیر جایزه ها</t>
+  </si>
+  <si>
+    <t>دادن امتیازی خاص به کاربر با توجه به ماهیت جایزه و تاثیر آن در بازی</t>
+  </si>
+  <si>
+    <t>محاسبه ی امتیاز و ثبت آن</t>
+  </si>
+  <si>
+    <t>اضافه شدن توانایی محاسبه ی امتیاز بعد از یک راند بازی و ثبت آن (فعلا به صورت لوکال)</t>
+  </si>
+  <si>
+    <t>شروط باخت (اتمام بازی)</t>
+  </si>
+  <si>
+    <t>اضافه شدن الگوریتم بررسی شروطی برای اتمام و پایان بازی</t>
+  </si>
+  <si>
+    <t>تکمیل گرافیک بازی</t>
+  </si>
+  <si>
+    <t>کامل کردن افکت ها و art و گرافیک کلی بازی</t>
+  </si>
+  <si>
+    <t>تست</t>
+  </si>
+  <si>
+    <t>تست کردن و بررسی بازی از جهات مختلف و اطمینان از کارایی صحیح و درست بازی</t>
+  </si>
+  <si>
+    <t>تابع حرکت پرتابی توپ - تابع حرکت مستقیم توپ</t>
+  </si>
+  <si>
+    <t>دکمه ی شروع بازی - شروع حرکت توپ از بالا (افتادن توپ از بالا به پایین روی دست) - بیرون رفتن توپ در صورت نگرفتن</t>
+  </si>
+  <si>
+    <t>توابع شروع تاچ ، حرکت دست و پایان آن - با وجود توپ در ناحیه ی دست و با لمس توپ حرکت را ادامه داده و بیرون نرود</t>
+  </si>
+  <si>
+    <t>محاسبه ی قدرت با در نظر گرفتن دو پارامتر میزان حرکت دست روی صفحه و زمان آن - فرستادن قدرت به توابع حرکت</t>
+  </si>
+  <si>
+    <t>گرفتن توپ - اضافه کردن افکت های صوتی - بعد از هر پرتاب مکثی کوتاه برای بازگشت دست در نظر گرفته شود</t>
+  </si>
+  <si>
+    <t>طراحی دست(art) و توپ ها</t>
+  </si>
+  <si>
+    <t>طراحی دست ها - طراحی توپ ها یا استفاده از تمپلیت های موجود</t>
+  </si>
+  <si>
+    <t>دکمه شروع - دکمه خروج - دکمه ی برگشت - دکمه ی ادامه - دکمه ی شروع مجدد - دکمه ی مکث</t>
+  </si>
+  <si>
+    <t>تشخیص وجود دو (یا بیشتر) توپ در یک محدوده - پیاده سازی الگوریتم برخورد و تغییر جهت دادن توپ ها</t>
+  </si>
+  <si>
+    <t>تشخیص انتخاب جایزه توسط کاربر - تاثیر جایزه در روند بازی و امتیاز آن برای کاربر</t>
+  </si>
+  <si>
+    <t>توپ ها با رنگ، جنس و سرعت متفاوت اضافه می‌شوند، اضافه شدن توپ ها</t>
+  </si>
+  <si>
+    <t>ادامه ی بازی از نقطه ی مکث شده - توپ ها با رنگ، جنس و سرعت متفاوت اضافه می‌شوند - شرط انتخاب توپ ها در چند ثانیه</t>
+  </si>
+  <si>
+    <t>تعیین جایزه برای کاربر (کاهش توپ، کند شدن، بمب(که نباید گرفته شود) و...) - امکان انتخاب جایزه توسط کاربر</t>
+  </si>
+  <si>
+    <t>بررسی و تشخیص شروط اتمام بازی (بیرون رفتن توپ ها، برخورد آنها و ...) - اعلام اتمام بازی و پیاده سازی روند منوی مجدد</t>
+  </si>
+  <si>
+    <t>تکمیل گرافیک جایزه ها - تکمیل گرافیک دست ها - عکس های پس زمینه متفاوت - تکمیل گرافیک توپ ها - و...</t>
+  </si>
+  <si>
+    <t>Black box testing - White-box testing - Integration testing - Alpha testing - Beta testing</t>
+  </si>
+  <si>
+    <t>محاسبه ی امتیاز کسب شده توسط بازیکن در پایان راند - ثبت امتیاز به صورت لوکال (محلی)</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>نصب VisualStudio - نصب cocos2D - آموزش های اندروید نویسی و استفاده از cocos2D</t>
   </si>
 </sst>
 </file>
@@ -110,15 +203,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -237,11 +336,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -251,15 +361,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="13">
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -276,15 +406,119 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -364,25 +598,37 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="medium">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="medium">
+        <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -396,14 +642,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:E21" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
-  <autoFilter ref="A3:E21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:E19" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+  <autoFilter ref="A3:E19"/>
+  <sortState ref="A4:E22">
+    <sortCondition descending="1" ref="A3"/>
+  </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="Priority" dataDxfId="5"/>
-    <tableColumn id="2" name="Point" dataDxfId="4"/>
-    <tableColumn id="3" name="Description(Demo)" dataDxfId="3"/>
-    <tableColumn id="4" name="PBI(Product Backlog Item)" dataDxfId="2"/>
-    <tableColumn id="5" name="Story ID" dataDxfId="0"/>
+    <tableColumn id="1" name="Priority" dataDxfId="8"/>
+    <tableColumn id="2" name="Point" dataDxfId="7"/>
+    <tableColumn id="3" name="Description(Demo)" dataDxfId="6"/>
+    <tableColumn id="4" name="PBI(Product Backlog Item)" dataDxfId="5"/>
+    <tableColumn id="5" name="Story ID" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="C23:E39" totalsRowShown="0" tableBorderDxfId="3">
+  <autoFilter ref="C23:E39"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Tasks" dataDxfId="2"/>
+    <tableColumn id="2" name="PBI(Product Backlog Item)" dataDxfId="1"/>
+    <tableColumn id="3" name="Story ID" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -696,10 +957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,7 +968,7 @@
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="80.28515625" customWidth="1"/>
     <col min="4" max="4" width="38.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
     <col min="7" max="7" width="77" customWidth="1"/>
     <col min="8" max="8" width="33.5703125" customWidth="1"/>
@@ -733,7 +994,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>1</v>
@@ -750,7 +1011,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4" s="6">
         <v>1</v>
@@ -758,36 +1019,36 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B5" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E5" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -801,7 +1062,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7" s="6">
         <v>4</v>
@@ -818,7 +1079,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E8" s="6">
         <v>5</v>
@@ -835,7 +1096,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E9" s="6">
         <v>6</v>
@@ -852,7 +1113,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E10" s="6">
         <v>7</v>
@@ -866,10 +1127,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E11" s="6">
         <v>8</v>
@@ -883,83 +1144,341 @@
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="E12" s="6">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="A13" s="5">
+        <v>55</v>
+      </c>
+      <c r="B13" s="1">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="6">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="A14" s="5">
+        <v>50</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="6">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="A15" s="5">
+        <v>45</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="6">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="A16" s="5">
+        <v>40</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="6">
+        <v>13</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="A17" s="5">
+        <v>35</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="6">
+        <v>14</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="A18" s="5">
+        <v>30</v>
+      </c>
+      <c r="B18" s="1">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="6">
+        <v>15</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="A19" s="5">
+        <v>25</v>
+      </c>
+      <c r="B19" s="1">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="6">
+        <v>16</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C31" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C35" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C36" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C37" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C38" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C39" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="11">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Product Backlog/Product Backlog.xlsx
+++ b/Product Backlog/Product Backlog.xlsx
@@ -30,9 +30,6 @@
     <t>Priority</t>
   </si>
   <si>
-    <t>نصب Cocos2d ، مطالعه کتاب</t>
-  </si>
-  <si>
     <t>شروع بازی، حرکت توپ از بالا و در صورت نگرفتن توپ، توپ بیرون برود</t>
   </si>
   <si>
@@ -181,6 +178,9 @@
   </si>
   <si>
     <t>نصب VisualStudio - نصب cocos2D - آموزش های اندروید نویسی و استفاده از cocos2D</t>
+  </si>
+  <si>
+    <t>نصب Cocos2d و visual studio ، مطالعه کتاب و تماشای فیلم های آموزشی</t>
   </si>
 </sst>
 </file>
@@ -960,7 +960,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,10 +991,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>1</v>
@@ -1008,10 +1008,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="6">
         <v>1</v>
@@ -1025,10 +1025,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="6">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>0.5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="6">
         <v>2</v>
@@ -1059,10 +1059,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="6">
         <v>4</v>
@@ -1076,10 +1076,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="6">
         <v>5</v>
@@ -1093,10 +1093,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="6">
         <v>6</v>
@@ -1110,10 +1110,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" s="6">
         <v>7</v>
@@ -1127,10 +1127,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="6">
         <v>8</v>
@@ -1144,10 +1144,10 @@
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" s="6">
         <v>9</v>
@@ -1161,10 +1161,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13" s="6">
         <v>11</v>
@@ -1178,10 +1178,10 @@
         <v>0.5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="6">
         <v>10</v>
@@ -1195,10 +1195,10 @@
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" s="6">
         <v>12</v>
@@ -1212,10 +1212,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" s="6">
         <v>13</v>
@@ -1229,10 +1229,10 @@
         <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E17" s="6">
         <v>14</v>
@@ -1246,10 +1246,10 @@
         <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E18" s="6">
         <v>15</v>
@@ -1263,10 +1263,10 @@
         <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" s="6">
         <v>16</v>
@@ -1288,10 +1288,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>1</v>
@@ -1299,10 +1299,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C24" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E24" s="9">
         <v>1</v>
@@ -1310,10 +1310,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C25" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E25" s="9">
         <v>3</v>
@@ -1321,10 +1321,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C26" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E26" s="9">
         <v>2</v>
@@ -1332,10 +1332,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C27" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E27" s="9">
         <v>4</v>
@@ -1343,10 +1343,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C28" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E28" s="9">
         <v>5</v>
@@ -1354,10 +1354,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C29" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E29" s="9">
         <v>6</v>
@@ -1365,10 +1365,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C30" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E30" s="9">
         <v>7</v>
@@ -1376,10 +1376,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C31" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E31" s="9">
         <v>8</v>
@@ -1387,10 +1387,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C32" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E32" s="9">
         <v>9</v>
@@ -1398,10 +1398,10 @@
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E33" s="9">
         <v>11</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C34" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E34" s="9">
         <v>10</v>
@@ -1420,10 +1420,10 @@
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C35" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E35" s="9">
         <v>12</v>
@@ -1431,10 +1431,10 @@
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C36" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E36" s="9">
         <v>13</v>
@@ -1442,10 +1442,10 @@
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C37" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E37" s="9">
         <v>14</v>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C38" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E38" s="9">
         <v>15</v>
@@ -1464,10 +1464,10 @@
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C39" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E39" s="11">
         <v>16</v>

--- a/Product Backlog/Product Backlog.xlsx
+++ b/Product Backlog/Product Backlog.xlsx
@@ -659,8 +659,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="C23:E39" totalsRowShown="0" tableBorderDxfId="3">
-  <autoFilter ref="C23:E39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="C24:E40" totalsRowShown="0" tableBorderDxfId="3">
+  <autoFilter ref="C24:E40"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Tasks" dataDxfId="2"/>
     <tableColumn id="2" name="PBI(Product Backlog Item)" dataDxfId="1"/>
@@ -957,10 +957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1286,190 +1286,197 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="3" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D24" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="9">
+      <c r="E24" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C25" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>18</v>
+        <v>53</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="E25" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C26" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E26" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C27" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E27" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C28" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E28" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C29" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E29" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C30" s="14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E30" s="9">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C31" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D32" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E32" s="9">
         <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C32" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="9">
-        <v>9</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E33" s="9">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C34" s="15" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E34" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C35" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E35" s="9">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C36" s="15" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E36" s="9">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C37" s="15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E37" s="9">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C38" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C39" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D39" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E39" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C39" s="16" t="s">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C40" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D40" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E40" s="11">
         <v>16</v>
       </c>
     </row>

--- a/Product Backlog/Product Backlog.xlsx
+++ b/Product Backlog/Product Backlog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Priority</t>
   </si>
   <si>
-    <t>نصب Cocos2d ، مطالعه کتاب</t>
-  </si>
-  <si>
     <t>شروع بازی، حرکت توپ از بالا و در صورت نگرفتن توپ، توپ بیرون برود</t>
   </si>
   <si>
@@ -54,12 +51,6 @@
     <t>گرفتن توپ، در صورت حرکت پشت سرهم دست به مدت کوتاهی فریز بشه</t>
   </si>
   <si>
-    <t>طراحی دست(art)، ایمان به دوستش میسپارد</t>
-  </si>
-  <si>
-    <t>توپ ها با رنگ، جنس و سرعت متفاوت اضافه می‌شوند، جایزه کم شدن توپ، تعیین جایزه، اضافه شدن توپ ها</t>
-  </si>
-  <si>
     <t>PBI(Product Backlog Item)</t>
   </si>
   <si>
@@ -88,6 +79,108 @@
   </si>
   <si>
     <t>نصب، آموزش</t>
+  </si>
+  <si>
+    <t>الگوریتم جایزه ها و گرفتن جایزه توسط کاربر</t>
+  </si>
+  <si>
+    <t>امکان در اختیار قرار دادن جایزه برای کاربر و توانایی انتخاب آن توسط وی</t>
+  </si>
+  <si>
+    <t>وارد کردن الگوریتم برخورد توپ ها به یکدیگر</t>
+  </si>
+  <si>
+    <t>توانایی پردازش و تشخیص برخورد توپ ها</t>
+  </si>
+  <si>
+    <t>محاسبه و تاثیر جایزه ها</t>
+  </si>
+  <si>
+    <t>دادن امتیازی خاص به کاربر با توجه به ماهیت جایزه و تاثیر آن در بازی</t>
+  </si>
+  <si>
+    <t>محاسبه ی امتیاز و ثبت آن</t>
+  </si>
+  <si>
+    <t>اضافه شدن توانایی محاسبه ی امتیاز بعد از یک راند بازی و ثبت آن (فعلا به صورت لوکال)</t>
+  </si>
+  <si>
+    <t>شروط باخت (اتمام بازی)</t>
+  </si>
+  <si>
+    <t>اضافه شدن الگوریتم بررسی شروطی برای اتمام و پایان بازی</t>
+  </si>
+  <si>
+    <t>تکمیل گرافیک بازی</t>
+  </si>
+  <si>
+    <t>کامل کردن افکت ها و art و گرافیک کلی بازی</t>
+  </si>
+  <si>
+    <t>تست</t>
+  </si>
+  <si>
+    <t>تست کردن و بررسی بازی از جهات مختلف و اطمینان از کارایی صحیح و درست بازی</t>
+  </si>
+  <si>
+    <t>تابع حرکت پرتابی توپ - تابع حرکت مستقیم توپ</t>
+  </si>
+  <si>
+    <t>دکمه ی شروع بازی - شروع حرکت توپ از بالا (افتادن توپ از بالا به پایین روی دست) - بیرون رفتن توپ در صورت نگرفتن</t>
+  </si>
+  <si>
+    <t>توابع شروع تاچ ، حرکت دست و پایان آن - با وجود توپ در ناحیه ی دست و با لمس توپ حرکت را ادامه داده و بیرون نرود</t>
+  </si>
+  <si>
+    <t>محاسبه ی قدرت با در نظر گرفتن دو پارامتر میزان حرکت دست روی صفحه و زمان آن - فرستادن قدرت به توابع حرکت</t>
+  </si>
+  <si>
+    <t>گرفتن توپ - اضافه کردن افکت های صوتی - بعد از هر پرتاب مکثی کوتاه برای بازگشت دست در نظر گرفته شود</t>
+  </si>
+  <si>
+    <t>طراحی دست(art) و توپ ها</t>
+  </si>
+  <si>
+    <t>طراحی دست ها - طراحی توپ ها یا استفاده از تمپلیت های موجود</t>
+  </si>
+  <si>
+    <t>دکمه شروع - دکمه خروج - دکمه ی برگشت - دکمه ی ادامه - دکمه ی شروع مجدد - دکمه ی مکث</t>
+  </si>
+  <si>
+    <t>تشخیص وجود دو (یا بیشتر) توپ در یک محدوده - پیاده سازی الگوریتم برخورد و تغییر جهت دادن توپ ها</t>
+  </si>
+  <si>
+    <t>تشخیص انتخاب جایزه توسط کاربر - تاثیر جایزه در روند بازی و امتیاز آن برای کاربر</t>
+  </si>
+  <si>
+    <t>توپ ها با رنگ، جنس و سرعت متفاوت اضافه می‌شوند، اضافه شدن توپ ها</t>
+  </si>
+  <si>
+    <t>ادامه ی بازی از نقطه ی مکث شده - توپ ها با رنگ، جنس و سرعت متفاوت اضافه می‌شوند - شرط انتخاب توپ ها در چند ثانیه</t>
+  </si>
+  <si>
+    <t>تعیین جایزه برای کاربر (کاهش توپ، کند شدن، بمب(که نباید گرفته شود) و...) - امکان انتخاب جایزه توسط کاربر</t>
+  </si>
+  <si>
+    <t>بررسی و تشخیص شروط اتمام بازی (بیرون رفتن توپ ها، برخورد آنها و ...) - اعلام اتمام بازی و پیاده سازی روند منوی مجدد</t>
+  </si>
+  <si>
+    <t>تکمیل گرافیک جایزه ها - تکمیل گرافیک دست ها - عکس های پس زمینه متفاوت - تکمیل گرافیک توپ ها - و...</t>
+  </si>
+  <si>
+    <t>Black box testing - White-box testing - Integration testing - Alpha testing - Beta testing</t>
+  </si>
+  <si>
+    <t>محاسبه ی امتیاز کسب شده توسط بازیکن در پایان راند - ثبت امتیاز به صورت لوکال (محلی)</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>نصب VisualStudio - نصب cocos2D - آموزش های اندروید نویسی و استفاده از cocos2D</t>
+  </si>
+  <si>
+    <t>نصب Cocos2d و visual studio ، مطالعه کتاب و تماشای فیلم های آموزشی</t>
   </si>
 </sst>
 </file>
@@ -110,15 +203,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -237,11 +336,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -251,15 +361,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="13">
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -276,15 +406,119 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -364,25 +598,37 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="medium">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="medium">
+        <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -396,14 +642,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:E21" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
-  <autoFilter ref="A3:E21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:E19" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+  <autoFilter ref="A3:E19"/>
+  <sortState ref="A4:E22">
+    <sortCondition descending="1" ref="A3"/>
+  </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="Priority" dataDxfId="5"/>
-    <tableColumn id="2" name="Point" dataDxfId="4"/>
-    <tableColumn id="3" name="Description(Demo)" dataDxfId="3"/>
-    <tableColumn id="4" name="PBI(Product Backlog Item)" dataDxfId="2"/>
-    <tableColumn id="5" name="Story ID" dataDxfId="0"/>
+    <tableColumn id="1" name="Priority" dataDxfId="8"/>
+    <tableColumn id="2" name="Point" dataDxfId="7"/>
+    <tableColumn id="3" name="Description(Demo)" dataDxfId="6"/>
+    <tableColumn id="4" name="PBI(Product Backlog Item)" dataDxfId="5"/>
+    <tableColumn id="5" name="Story ID" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="C24:E40" totalsRowShown="0" tableBorderDxfId="3">
+  <autoFilter ref="C24:E40"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Tasks" dataDxfId="2"/>
+    <tableColumn id="2" name="PBI(Product Backlog Item)" dataDxfId="1"/>
+    <tableColumn id="3" name="Story ID" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -696,10 +957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,7 +968,7 @@
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="80.28515625" customWidth="1"/>
     <col min="4" max="4" width="38.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
     <col min="7" max="7" width="77" customWidth="1"/>
     <col min="8" max="8" width="33.5703125" customWidth="1"/>
@@ -730,10 +991,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>1</v>
@@ -747,10 +1008,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E4" s="6">
         <v>1</v>
@@ -758,36 +1019,36 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B5" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E5" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E6" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -798,10 +1059,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E7" s="6">
         <v>4</v>
@@ -815,10 +1076,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E8" s="6">
         <v>5</v>
@@ -832,10 +1093,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E9" s="6">
         <v>6</v>
@@ -849,10 +1110,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E10" s="6">
         <v>7</v>
@@ -866,10 +1127,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E11" s="6">
         <v>8</v>
@@ -883,83 +1144,348 @@
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E12" s="6">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="A13" s="5">
+        <v>55</v>
+      </c>
+      <c r="B13" s="1">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="6">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="A14" s="5">
+        <v>50</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="6">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="A15" s="5">
+        <v>45</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="6">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="A16" s="5">
+        <v>40</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="6">
+        <v>13</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="A17" s="5">
+        <v>35</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="6">
+        <v>14</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="A18" s="5">
+        <v>30</v>
+      </c>
+      <c r="B18" s="1">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="6">
+        <v>15</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="A19" s="5">
+        <v>25</v>
+      </c>
+      <c r="B19" s="1">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="6">
+        <v>16</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C31" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C35" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C36" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C37" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C38" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C39" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C40" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" s="11">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
